--- a/NathanielCookCamera.xlsx
+++ b/NathanielCookCamera.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naffy\Documents\maya\projects\Camera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naffy\Documents\Git\3D Modeling\DGM-1660-Fall-2020-Nathaniel-Cook-Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A696E9AC-9885-464B-8877-73E2F946720F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64263C17-929D-4DD2-A033-C4D9533DF994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D52" s="7">
         <v>26</v>
@@ -2079,7 +2079,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="11">
         <f>SUM(C52:F52)</f>
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12.75">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="H57" s="16">
         <f>SUM(H28:H56)</f>
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H58" s="20">
         <f>SUM(H8,H26,H57)</f>
-        <v>2695.5</v>
+        <v>2700.5</v>
       </c>
     </row>
   </sheetData>
